--- a/프로젝트 서류/프로젝트 시나리오(AIT_Pj_A08).xlsx
+++ b/프로젝트 서류/프로젝트 시나리오(AIT_Pj_A08).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\sprint\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\project\프로젝트 서류\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">시나리오 설계서 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,6 +137,10 @@
   </si>
   <si>
     <t>Final. 모든 과정을 마치면 페이지를 닫는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-5. 구독 정보가 이미 존재할 시에는 구독 신청 실패 페이지가 뜬다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -631,30 +635,29 @@
       </c>
     </row>
     <row r="30" spans="1:1" ht="24" x14ac:dyDescent="0.4">
-      <c r="A30" s="3"/>
-    </row>
-    <row r="31" spans="1:1" ht="24" x14ac:dyDescent="0.4">
-      <c r="A31" s="3" t="s">
-        <v>24</v>
+      <c r="A30" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+      <c r="A33" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="24" x14ac:dyDescent="0.4">
-      <c r="A33" s="2" t="s">
+    <row r="34" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="24" x14ac:dyDescent="0.4">
-      <c r="A34" s="3" t="s">
+    <row r="35" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+      <c r="A35" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="24" x14ac:dyDescent="0.4">
-      <c r="A35" s="3"/>
     </row>
     <row r="36" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A36" s="3"/>

--- a/프로젝트 서류/프로젝트 시나리오(AIT_Pj_A08).xlsx
+++ b/프로젝트 서류/프로젝트 시나리오(AIT_Pj_A08).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t xml:space="preserve">시나리오 설계서 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,10 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1-2. 고객이 원하는 구독 유형을 선택해 구독하기 버튼을 클릭한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1-3. 구독 완료 안내 페이지가 뜨며 구독이 완료된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -141,6 +137,14 @@
   </si>
   <si>
     <t>1-5. 구독 정보가 이미 존재할 시에는 구독 신청 실패 페이지가 뜬다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-6. 베이직 회원이 프리미엄 구독을 선택할 시 구독이 업그레이드 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2. 고객이 원하는 구독 유형을 선택해 신청하기 버튼을 클릭한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -621,46 +625,48 @@
     </row>
     <row r="27" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+      <c r="A31" s="3" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="24" x14ac:dyDescent="0.4">
-      <c r="A32" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+      <c r="A34" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="24" x14ac:dyDescent="0.4">
-      <c r="A34" s="2" t="s">
+    <row r="36" spans="1:1" ht="24" x14ac:dyDescent="0.4">
+      <c r="A36" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="24" x14ac:dyDescent="0.4">
-      <c r="A35" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="24" x14ac:dyDescent="0.4">
-      <c r="A36" s="3"/>
     </row>
     <row r="37" spans="1:1" ht="24" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
